--- a/Mobility_data/Other_input/legend_hhgr_gr.xlsx
+++ b/Mobility_data/Other_input/legend_hhgr_gr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="3960"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19176" windowHeight="3960"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -437,12 +437,12 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,7 +450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -458,7 +458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -466,7 +466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -474,7 +474,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
